--- a/src/main/resources/禅道bug提交表 - 副本.xlsx
+++ b/src/main/resources/禅道bug提交表 - 副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/xxxx/zentao/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F622F3-238C-5842-9E0F-458FC996E835}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E3127F-CAA9-B04D-9C12-841D4FD1720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>测试项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,9 +162,6 @@
     <t>主干</t>
   </si>
   <si>
-    <t>H:前端-黄静</t>
-  </si>
-  <si>
     <t>代码错误</t>
   </si>
   <si>
@@ -172,10 +169,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装部署</t>
-  </si>
-  <si>
-    <t>G:Ios-过家康</t>
+    <t>H:前端-xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,6 +312,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -329,9 +327,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,7 +612,7 @@
   <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -639,22 +634,22 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="17.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -668,18 +663,18 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="17">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:22" s="1" customFormat="1" ht="18">
@@ -727,40 +722,36 @@
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" t="s">
-        <v>35</v>
-      </c>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7" spans="1:22" s="1" customFormat="1">
       <c r="A7" s="11"/>
@@ -1399,8 +1390,8 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G6:G1048576" xr:uid="{3A3C04D1-487A-4974-A6B0-B198626A373F}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G7:G1048576" xr:uid="{3A3C04D1-487A-4974-A6B0-B198626A373F}">
       <formula1>$V$6:$V$35</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G5" xr:uid="{91D763C1-36AF-4A4A-89C7-EBFF141F64A3}">
@@ -1412,14 +1403,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J40 K6:K21" xr:uid="{D66540E5-6B8D-4362-9ACB-93C6065DE193}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{1064D122-7FCF-42EA-92D4-F4955D8A6027}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F5 F7:F1048576" xr:uid="{1064D122-7FCF-42EA-92D4-F4955D8A6027}">
       <formula1>"主干"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{5779E374-4FF7-448E-A57B-BE4FEB47C63C}">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H6" xr:uid="{B0252465-7750-C74E-A7EF-9A5AA5DFF37C}">
-      <formula1>$U$6:$U$14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
